--- a/biology/Histoire de la zoologie et de la botanique/Philippe_Desbrosses/Philippe_Desbrosses.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philippe_Desbrosses/Philippe_Desbrosses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Pierre Gaston Desbrosses (né le 28 mai 1941[1]) est un agriculteur, scientifique et écrivain français. Il est un des pionniers de l’agriculture biologique en Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Pierre Gaston Desbrosses (né le 28 mai 1941) est un agriculteur, scientifique et écrivain français. Il est un des pionniers de l’agriculture biologique en Europe.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans une famille de paysans de père en fils, Philippe Desbrosses s'intéresse très tôt à la structure et à la qualité du sol.  Il accompagne pendant une vingtaine d'années le professeur Keilling, agronome, dans son périple de démonstration des vertus de l'agriculture organique[2]. Jusqu'à l'âge de 30 ans, Philippe Desbrosses gagne sa vie comme musicien et chanteur du groupe Belisama[3]. Il obtient par la suite un doctorat en sciences de l’environnement à l'université Paris-Diderot.
-Ses parents, pionniers, font passer la Ferme de Sainte-Marthe en Sologne à l'agriculture biologique dès 1969. À la suite de cette conversion, il prend conscience de l'érosion de la biodiversité ainsi que de la standardisation des variétés de semences produites par l'agro-industrie et de leurs faibles qualités. C'est ainsi qu'il réintroduit des variétés rustiques et crée dès 1974[4] un Conservatoire de semences de variétés anciennes, connu internationalement.
-En 1999, il crée l’Association Intelligence verte, ainsi que les Entretiens de Millançay qui deviennent ensuite les Entretiens de Sologne. Il se présente comme l'un des pionniers de l’agriculture biologique. Il a notamment présidé la Commission nationale du Label AB de 1983 à 2007[3]. Chargé de mission auprès du ministère de l'Agriculture et expert consultant auprès de l'Union européenne, il copilote un chantier du Grenelle Environnement dont l'objectif est le triplement des surfaces cultivées en agriculture biologique en cinq ans et l'introduction de 20 % de produits biologiques dans la restauration collective.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans une famille de paysans de père en fils, Philippe Desbrosses s'intéresse très tôt à la structure et à la qualité du sol.  Il accompagne pendant une vingtaine d'années le professeur Keilling, agronome, dans son périple de démonstration des vertus de l'agriculture organique. Jusqu'à l'âge de 30 ans, Philippe Desbrosses gagne sa vie comme musicien et chanteur du groupe Belisama. Il obtient par la suite un doctorat en sciences de l’environnement à l'université Paris-Diderot.
+Ses parents, pionniers, font passer la Ferme de Sainte-Marthe en Sologne à l'agriculture biologique dès 1969. À la suite de cette conversion, il prend conscience de l'érosion de la biodiversité ainsi que de la standardisation des variétés de semences produites par l'agro-industrie et de leurs faibles qualités. C'est ainsi qu'il réintroduit des variétés rustiques et crée dès 1974 un Conservatoire de semences de variétés anciennes, connu internationalement.
+En 1999, il crée l’Association Intelligence verte, ainsi que les Entretiens de Millançay qui deviennent ensuite les Entretiens de Sologne. Il se présente comme l'un des pionniers de l’agriculture biologique. Il a notamment présidé la Commission nationale du Label AB de 1983 à 2007. Chargé de mission auprès du ministère de l'Agriculture et expert consultant auprès de l'Union européenne, il copilote un chantier du Grenelle Environnement dont l'objectif est le triplement des surfaces cultivées en agriculture biologique en cinq ans et l'introduction de 20 % de produits biologiques dans la restauration collective.
 Il est membre du comité de veille écologique de la Fondation Nicolas Hulot et membre du Conseil d'administration du CRIIGEN (Comité de recherche et d'information indépendantes sur le génie génétique), présidé par Corinne Lepage.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Intelligence verte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Association « Intelligence verte » est créée en 1999 et a pour objet la sauvegarde du patrimoine génétique et de la biodiversité. Parmi ses membres fondateurs, il y a Edgar Morin, Corinne Lepage, Jean-Marie Pelt, Michel Lis, et Pierre Tchernia.
 Les principales activités de l’association sont :
@@ -579,10 +595,12 @@
           <t>Entretiens de Millançay puis de Sologne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chaque année à la fin de l'été, des scientifiques, des politiques et des représentants de la société civile viennent débattre avec le public de sujets portant sur une société plus responsable. 
-En 2012, les Entretiens s'élargissent, se renouvellent et deviennent les Entretiens de Sologne. En plus du cycle de conférences, un écofestival, propose des ateliers-conférences et ateliers-démonstrations pour appréhender des outils de transformation de la vie quotidienne et collective, dans le but de plus d'autonomie et de plus de respect de l'environnement[5]. 
+En 2012, les Entretiens s'élargissent, se renouvellent et deviennent les Entretiens de Sologne. En plus du cycle de conférences, un écofestival, propose des ateliers-conférences et ateliers-démonstrations pour appréhender des outils de transformation de la vie quotidienne et collective, dans le but de plus d'autonomie et de plus de respect de l'environnement. 
 Les thèmes annuels sont :
 2005 : Comment la responsabilité dans l’innovation change la vie ?
 2006 : Éco-régionalité et souveraineté alimentaire.
@@ -621,9 +639,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2003)[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2003)
  Officier de l'ordre du Mérite agricole</t>
         </is>
       </c>
@@ -654,8 +674,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ouvrages
-Le krach alimentaire, Édition Le Rocher, 1987 (préface de l’Abbé Pierre).
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le krach alimentaire, Édition Le Rocher, 1987 (préface de l’Abbé Pierre).
 La Terre malade des Hommes : la bio-révolution, Édition Le Rocher, 1990 (en collaboration avec Stéphane Trano).
 Nous redeviendrons paysans !, Édition Le Rocher, 1993.
 L’intelligence verte : l’agriculture de l’avenir., Édition Le Rocher, 1997.
@@ -671,9 +696,43 @@
 La famine mondiale est imminente : comment les villages pourraient assurer une prospérité durable, Éditions Le Serpent à plumes, 2009 (préface de l'ouvrage de Pierre Gevaert).
 Guérir la Terre, Éditions Albin Michel, 2010.
 Manifeste pour un retour à la terre : comment assurer la sécurité alimentaire pour demain, Éditions Dangles, 2012 (avec les contributions d'Edgar Morin et d'Olivier De Schutter, rapporteur spécial des Nations unies).
-Nous redeviendrons paysans, pour l'avenir de nos enfants, Éditions Dangles, 2014 (6e édition)
-Ouvrages collectifs
-Dominique Bourg, Gauthier Chapelle, Johann Chapoutot, Philippe Desbrosses, Xavier Ricard Lanata, Pablo Servigne et Sophie Swaton, Retour sur Terre : 35 propositions, Presses universitaires de France, 2020, 96 p. (ISBN 978-2-13-082653-8).</t>
+Nous redeviendrons paysans, pour l'avenir de nos enfants, Éditions Dangles, 2014 (6e édition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe_Desbrosses</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Desbrosses</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dominique Bourg, Gauthier Chapelle, Johann Chapoutot, Philippe Desbrosses, Xavier Ricard Lanata, Pablo Servigne et Sophie Swaton, Retour sur Terre : 35 propositions, Presses universitaires de France, 2020, 96 p. (ISBN 978-2-13-082653-8).</t>
         </is>
       </c>
     </row>
